--- a/Data/EC/NIT-9005407370.xlsx
+++ b/Data/EC/NIT-9005407370.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50DA6DD-A72D-48D8-A57A-61413AD389E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{665D9E43-D030-46DF-9C7B-36D8EF9E9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF3783DB-B349-434C-AB29-471F71195124}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8FF6F61-3C43-4950-A7C4-B4D861147F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,82 +71,82 @@
     <t>HENRY MARIO MEZA GUTIERREZ</t>
   </si>
   <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>45470844</t>
+  </si>
+  <si>
+    <t>NUBIA ELSA QUINTERO RAMOS</t>
+  </si>
+  <si>
+    <t>1020395955</t>
+  </si>
+  <si>
+    <t>SOR MARIA FONNEGRA ZAPATA</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>45470844</t>
-  </si>
-  <si>
-    <t>NUBIA ELSA QUINTERO RAMOS</t>
-  </si>
-  <si>
-    <t>1020395955</t>
-  </si>
-  <si>
-    <t>SOR MARIA FONNEGRA ZAPATA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FD4D84-7B09-3CEE-1EED-32587A2D0CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723B4D93-D4B1-BFF8-162D-2D21174D9242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54416B76-28B3-4B90-9BD2-F68C5921ED8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAEC9CD-57EB-4037-83CF-A582C20A684C}">
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1089,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28708</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1172,19 +1172,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>29508</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1195,13 +1195,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1224,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1310,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>29508</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1339,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1362,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1385,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1569,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1586,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F38" s="18">
-        <v>29508</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1609,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
-        <v>29508</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1632,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F40" s="24">
-        <v>33125</v>
+        <v>28708</v>
       </c>
       <c r="G40" s="24">
         <v>828116</v>
